--- a/Dialog_Generator/templates_for_dialogue_self_play.xlsx
+++ b/Dialog_Generator/templates_for_dialogue_self_play.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="213">
   <si>
     <t>Player</t>
   </si>
@@ -42,6 +42,174 @@
     <t>User</t>
   </si>
   <si>
+    <t>inform intent=balance {user_account}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to know my {user_account} account balance </t>
+  </si>
+  <si>
+    <t>I would like to know my account balance for {user_account}</t>
+  </si>
+  <si>
+    <t>inform-intent_account_balance-user_account</t>
+  </si>
+  <si>
+    <t>Please show me account balance for {user_account}</t>
+  </si>
+  <si>
+    <t>Can I see my {user_account} account balance</t>
+  </si>
+  <si>
+    <t>inform intent=balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to know my account balance </t>
+  </si>
+  <si>
+    <t>Vorrei sapere il saldo del mio conto</t>
+  </si>
+  <si>
+    <t>Show me my account balance</t>
+  </si>
+  <si>
+    <t>inform-intent_account_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform intent=balance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to see my account balance </t>
+  </si>
+  <si>
+    <t>Vorrei vedere il saldo del mio conto</t>
+  </si>
+  <si>
+    <t>Can you display my account balance ?</t>
+  </si>
+  <si>
+    <t>How much money do I have?</t>
+  </si>
+  <si>
+    <t>Quanti soldi ho sul conto?</t>
+  </si>
+  <si>
+    <t>I want to see my account balance ?</t>
+  </si>
+  <si>
+    <t>How much money there is on my acount?</t>
+  </si>
+  <si>
+    <t>Quanti soldi ci sono sul mio conto?</t>
+  </si>
+  <si>
+    <t>I would like to know the amount of money with me right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is my account balance? </t>
+  </si>
+  <si>
+    <t>Qual è il saldo del mio conto?</t>
+  </si>
+  <si>
+    <t>How much money am I carrying right now ?</t>
+  </si>
+  <si>
+    <t>inform {user_account}</t>
+  </si>
+  <si>
+    <t>my {user_account} account</t>
+  </si>
+  <si>
+    <t>il mio {user_account} conto</t>
+  </si>
+  <si>
+    <t>Prefer {user_account} account</t>
+  </si>
+  <si>
+    <t>inform-user_account</t>
+  </si>
+  <si>
+    <t>use {user_account}</t>
+  </si>
+  <si>
+    <t>usa {user_account}</t>
+  </si>
+  <si>
+    <t>Please select my {user_account} account</t>
+  </si>
+  <si>
+    <t>let's see {user_account}</t>
+  </si>
+  <si>
+    <t>vediamo {user_account}</t>
+  </si>
+  <si>
+    <t>How about my {user_account} account</t>
+  </si>
+  <si>
+    <t>{user_account}</t>
+  </si>
+  <si>
+    <t>I choose {user_account} account</t>
+  </si>
+  <si>
+    <t>it's {user_account}</t>
+  </si>
+  <si>
+    <t>è il {user_account}</t>
+  </si>
+  <si>
+    <t>I select my {user_account} account</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>request {user_account}</t>
+  </si>
+  <si>
+    <t>which account do you want to check ?</t>
+  </si>
+  <si>
+    <t>Per favore, specificare quale conto</t>
+  </si>
+  <si>
+    <t>request-user_account</t>
+  </si>
+  <si>
+    <t>request {intent}</t>
+  </si>
+  <si>
+    <t>how can i help you today ?</t>
+  </si>
+  <si>
+    <t>come posso aiutarla oggi ?</t>
+  </si>
+  <si>
+    <t>request-intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform intent=transaction_history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to know my transaction history </t>
+  </si>
+  <si>
+    <t>Can I see my transaction history ?</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history</t>
+  </si>
+  <si>
+    <t>inforrm intent=transaction_history {user_account} {credit_debit} {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to see my {credit_debit } transaction history from {user_account} to {destination_name} </t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-user_account-credit_debit-destination_name</t>
+  </si>
+  <si>
     <t>inform intent=transfer {destination_name} {user_account} {amount}</t>
   </si>
   <si>
@@ -54,115 +222,43 @@
     <t>Can you transfer {amount} from my {user_account} to {destination_name}</t>
   </si>
   <si>
-    <t>inform intent=balance {user_account}</t>
-  </si>
-  <si>
     <t>inform-intent_transaction-user_account-destination_name-amount</t>
   </si>
   <si>
-    <t xml:space="preserve">I would like to know my {user_account} account balance </t>
-  </si>
-  <si>
-    <t>I would like to know my account balance for {user_account}</t>
-  </si>
-  <si>
-    <t>inform-intent_account_balance-user_account</t>
-  </si>
-  <si>
-    <t>Please show me account balance for {user_account}</t>
-  </si>
-  <si>
-    <t>Can I see my {user_account} account balance</t>
-  </si>
-  <si>
-    <t>inform intent=balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to know my account balance </t>
-  </si>
-  <si>
-    <t>Vorrei sapere il saldo del mio conto</t>
-  </si>
-  <si>
-    <t>Show me my account balance</t>
-  </si>
-  <si>
-    <t>inform-intent_account_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inform intent=balance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my account balance </t>
-  </si>
-  <si>
-    <t>Vorrei vedere il saldo del mio conto</t>
-  </si>
-  <si>
-    <t>Can you display my account balance ?</t>
-  </si>
-  <si>
-    <t>How much money do I have?</t>
-  </si>
-  <si>
-    <t>Quanti soldi ho sul conto?</t>
-  </si>
-  <si>
-    <t>I want to see my account balance ?</t>
-  </si>
-  <si>
-    <t>How much money there is on my acount?</t>
-  </si>
-  <si>
-    <t>Quanti soldi ci sono sul mio conto?</t>
-  </si>
-  <si>
-    <t>I would like to know the amount of money with me right now.</t>
-  </si>
-  <si>
     <t>inform intent=transfer {destination_name} {amount}</t>
   </si>
   <si>
     <t xml:space="preserve">I want to send {amount} to {destination_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">What is my account balance? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vorrei mandare {amount} a {destination_name} </t>
   </si>
   <si>
-    <t>Qual è il saldo del mio conto?</t>
+    <t>inform intent=transaction_history {user_account} {credit_debit}</t>
   </si>
   <si>
     <t>Could you please transfer {amount} to {destination_name}</t>
   </si>
   <si>
-    <t>How much money am I carrying right now ?</t>
+    <t>I would like to see my {credit_debit} transaction history from {user_account}</t>
   </si>
   <si>
     <t>inform-intent_transaction-destination_name-amount</t>
   </si>
   <si>
-    <t>inform {user_account}</t>
-  </si>
-  <si>
-    <t>my {user_account} account</t>
-  </si>
-  <si>
-    <t>il mio {user_account} conto</t>
+    <t>inform-intent_transaction_history-user_account-credit_debit</t>
   </si>
   <si>
     <t>inform intent=transfer {amount} {user_account}</t>
   </si>
   <si>
-    <t>Prefer {user_account} account</t>
-  </si>
-  <si>
     <t>I would like to transfer {amount} from my {user_account}</t>
   </si>
   <si>
-    <t>inform-user_account</t>
+    <t>inform intent=transaction_history {user_account} {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to see my transaction history from {user_account} to {destination_name} </t>
   </si>
   <si>
     <t>Please transfer {amount} from my {user_account}</t>
@@ -171,75 +267,72 @@
     <t>inform-intent_transaction-user_account-amount</t>
   </si>
   <si>
-    <t>use {user_account}</t>
-  </si>
-  <si>
-    <t>usa {user_account}</t>
-  </si>
-  <si>
-    <t>Please select my {user_account} account</t>
+    <t>inform-intent_transaction_history-user_account-destination_name</t>
   </si>
   <si>
     <t>inform intent=transfer {destination_name} {user_account}</t>
   </si>
   <si>
-    <t>let's see {user_account}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inform intent=transaction_history </t>
+    <t>inform intent=transaction_history {credit_debit} {destination_name}</t>
   </si>
   <si>
     <t>I would like to take some money from my {user_account} for {destination_name}</t>
   </si>
   <si>
-    <t xml:space="preserve">I would like to know my transaction history </t>
+    <t xml:space="preserve">I would like to see my {credit_debit} transaction history to {destination_name} </t>
   </si>
   <si>
     <t>Vorrei prendere dei soldi dal mio {user_account} da mandare a {destination_name}</t>
   </si>
   <si>
-    <t>Can I see my transaction history ?</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history</t>
-  </si>
-  <si>
-    <t>inforrm intent=transaction_history {user_account} {credit_debit} {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my {credit_debit } transaction history from {user_account} to {destination_name} </t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account-credit_debit-destination_name</t>
-  </si>
-  <si>
     <t>I want to transfer money from my {user_account} to {destination_name}</t>
   </si>
   <si>
     <t>inform-intent_transaction-user_account-destination_name</t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-credit_debit-destination_name</t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {user_account}</t>
+  </si>
+  <si>
     <t>inform intent=transfer {destination_name}</t>
   </si>
   <si>
+    <t>I would like to seem my transaction history from {user_account}</t>
+  </si>
+  <si>
     <t xml:space="preserve">I want to send some money to {destination_name} </t>
   </si>
   <si>
     <t xml:space="preserve">Vorrei mandare dei soldi a {destination_name} </t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-user_account</t>
+  </si>
+  <si>
     <t>Send money to {destination_name}</t>
   </si>
   <si>
     <t>inform-intent_transaction-destination_name</t>
   </si>
   <si>
+    <t>inform intent=transaction_history {credit_debit}</t>
+  </si>
+  <si>
+    <t>I would like to see my {credit_debit} transaction history</t>
+  </si>
+  <si>
     <t>inform intent=transfer {amout}</t>
   </si>
   <si>
     <t>I would like to transfer {amount}</t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-credit_debit</t>
+  </si>
+  <si>
     <t>Vorrei trasferire {amount}</t>
   </si>
   <si>
@@ -249,102 +342,78 @@
     <t>inform-intent_transaction-amount</t>
   </si>
   <si>
-    <t>inform intent=transaction_history {user_account} {credit_debit}</t>
-  </si>
-  <si>
-    <t>I would like to see my {credit_debit} transaction history from {user_account}</t>
+    <t>inform intent=transaction_history {destination_name}</t>
+  </si>
+  <si>
+    <t>I would like to see my transaction history to {destination_name}</t>
   </si>
   <si>
     <t>inform intent=transfer {user_account}</t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-destination_name</t>
+  </si>
+  <si>
     <t>I would like to transfer some money from  {user_account}</t>
   </si>
   <si>
     <t>Vorrei trasferire dei soldi dal mio  {user_account}</t>
   </si>
   <si>
-    <t>inform-intent_transaction_history-user_account-credit_debit</t>
-  </si>
-  <si>
     <t>Send money from {user_account}</t>
   </si>
   <si>
     <t>inform-intent_transaction-user_account</t>
   </si>
   <si>
-    <t>inform intent=transaction_history {user_account} {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my transaction history from {user_account} to {destination_name} </t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account-destination_name</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {credit_debit} {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my {credit_debit } transaction history to {destination_name} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my {credit_debit} transaction history to {destination_name} </t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-credit_debit-destination_name</t>
-  </si>
-  <si>
-    <t>vediamo {user_account}</t>
+    <t>I want to use {user_account} account</t>
+  </si>
+  <si>
+    <t>Please use {user_account} account</t>
+  </si>
+  <si>
+    <t>I would like {user_account} account</t>
+  </si>
+  <si>
+    <t>{user_account} account please</t>
+  </si>
+  <si>
+    <t>Go for {user_account}</t>
+  </si>
+  <si>
+    <t>inform {credit_debit}</t>
+  </si>
+  <si>
+    <t>{credit_debit}</t>
   </si>
   <si>
     <t>inform intent=transfer</t>
   </si>
   <si>
+    <t>{credit_debit} please</t>
+  </si>
+  <si>
     <t>I would like to transfer some money</t>
   </si>
   <si>
-    <t>How about my {user_account} account</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {user_account}</t>
-  </si>
-  <si>
     <t>Vorrei trasferire dei soldi</t>
   </si>
   <si>
-    <t>I would like to seem my transaction history from {user_account}</t>
-  </si>
-  <si>
     <t>Can you transfer some money ?</t>
   </si>
   <si>
     <t>inform-intent_transaction</t>
   </si>
   <si>
-    <t>inform-intent_transaction_history-user_account</t>
-  </si>
-  <si>
-    <t>{user_account}</t>
-  </si>
-  <si>
     <t>I need to transfer money</t>
   </si>
   <si>
     <t>Ho bisogno di trasferire denaro</t>
   </si>
   <si>
-    <t>inform intent=transaction_history {credit_debit}</t>
-  </si>
-  <si>
     <t>Please Transfer money</t>
   </si>
   <si>
-    <t>I would like to see my {credit_debit} transaction history</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-credit_debit</t>
-  </si>
-  <si>
     <t>I want to send some money</t>
   </si>
   <si>
@@ -354,145 +423,112 @@
     <t>I would like to make a money transaction</t>
   </si>
   <si>
-    <t>inform intent=transaction_history {destination_name}</t>
-  </si>
-  <si>
-    <t>I would like to see my transaction history to {destination_name}</t>
+    <t>inform-credit_debit</t>
   </si>
   <si>
     <t>I need to make a transaction</t>
   </si>
   <si>
-    <t>inform-intent_transaction_history-destination_name</t>
-  </si>
-  <si>
     <t>Ho bisogno di fare una transazione</t>
   </si>
   <si>
     <t>Transfer money please</t>
   </si>
   <si>
+    <t>let's see {credit_debit}</t>
+  </si>
+  <si>
     <t>transfer money</t>
   </si>
   <si>
+    <t>prefer to use {credit_debit}</t>
+  </si>
+  <si>
     <t>Trasferire denaro</t>
   </si>
   <si>
     <t>Send Money</t>
   </si>
   <si>
-    <t>I choose {user_account} account</t>
-  </si>
-  <si>
-    <t>I want to use {user_account} account</t>
-  </si>
-  <si>
-    <t>it's {user_account}</t>
-  </si>
-  <si>
-    <t>è il {user_account}</t>
-  </si>
-  <si>
-    <t>I select my {user_account} account</t>
-  </si>
-  <si>
-    <t>Please use {user_account} account</t>
+    <t>I want information about {credit_debit}</t>
+  </si>
+  <si>
+    <t>Go for {credit_debit}</t>
   </si>
   <si>
     <t>from my {user_account}</t>
   </si>
   <si>
-    <t>I would like {user_account} account</t>
+    <t>inform {destiantion_name}</t>
+  </si>
+  <si>
+    <t>it's about {destination_name}</t>
+  </si>
+  <si>
+    <t>{destination_name} is the person</t>
+  </si>
+  <si>
+    <t>inform-destination_name</t>
   </si>
   <si>
     <t>take money from {user_account}</t>
   </si>
   <si>
-    <t>{user_account} account please</t>
+    <t>{destination_name}</t>
+  </si>
+  <si>
+    <t>Please use {destination_name}</t>
   </si>
   <si>
     <t>take from {user_account}</t>
   </si>
   <si>
-    <t>Go for {user_account}</t>
-  </si>
-  <si>
     <t>prendili da {user_account}</t>
   </si>
   <si>
     <t>use the {user_account} for the transaction</t>
   </si>
   <si>
+    <t>I choose {destination_name}</t>
+  </si>
+  <si>
     <t>note that this one "take from" is meaningful only in the transaction scenario</t>
   </si>
   <si>
-    <t>Bot</t>
-  </si>
-  <si>
-    <t>request {user_account}</t>
-  </si>
-  <si>
-    <t>inform {credit_debit}</t>
-  </si>
-  <si>
-    <t>Which account do you want to check?</t>
-  </si>
-  <si>
-    <t>{credit_debit}</t>
-  </si>
-  <si>
-    <t>Per favore, specificare quale conto</t>
+    <t>It is {destination_name}</t>
   </si>
   <si>
     <t>I select {user_account}</t>
   </si>
   <si>
-    <t>Which account do you want to check ?</t>
-  </si>
-  <si>
-    <t>{credit_debit} please</t>
-  </si>
-  <si>
-    <t>request-user_account</t>
-  </si>
-  <si>
-    <t>inform-credit_debit</t>
+    <t>let's see {destination_name}</t>
+  </si>
+  <si>
+    <t>I want it for {destination_name}</t>
   </si>
   <si>
     <t>withdraw from {user_account}</t>
   </si>
   <si>
-    <t>let's see {credit_debit}</t>
-  </si>
-  <si>
     <t>preleva da {user_account}</t>
   </si>
   <si>
-    <t>prefer to use {credit_debit}</t>
+    <t>the partner is {destination_name}</t>
   </si>
   <si>
     <t>Prefer the {user_account}</t>
   </si>
   <si>
-    <t>request {intent}</t>
-  </si>
-  <si>
-    <t>how can i help you today ?</t>
-  </si>
-  <si>
-    <t>come posso aiutarla oggi ?</t>
-  </si>
-  <si>
-    <t>I want information about {credit_debit}</t>
-  </si>
-  <si>
-    <t>request-intent</t>
-  </si>
-  <si>
-    <t>Go for {credit_debit}</t>
-  </si>
-  <si>
-    <t>inform {destiantion_name}</t>
+    <t>{destination_name} is the person you are looking for</t>
+  </si>
+  <si>
+    <t>request {credit_debit}</t>
+  </si>
+  <si>
+    <t>which information should I give credit or debit ?</t>
+  </si>
+  <si>
+    <t>request-credit_debit</t>
   </si>
   <si>
     <t>it's for {destination_name}</t>
@@ -504,36 +540,27 @@
     <t>The money is for {destination_name}</t>
   </si>
   <si>
-    <t>inform-destination_name</t>
-  </si>
-  <si>
-    <t>it's about {destination_name}</t>
-  </si>
-  <si>
-    <t>{destination_name} is the person</t>
-  </si>
-  <si>
-    <t>{destination_name}</t>
+    <t>request {destination_name}</t>
+  </si>
+  <si>
+    <t>can I ask what is the name of the partner ?</t>
   </si>
   <si>
     <t>{destination_name} is the recipient</t>
   </si>
   <si>
-    <t>Please use {destination_name}</t>
-  </si>
-  <si>
-    <t>I choose {destination_name}</t>
+    <t>request-destination_name</t>
   </si>
   <si>
     <t>scelgo {destination_name}</t>
   </si>
   <si>
+    <t>which account do you want to select ?</t>
+  </si>
+  <si>
     <t>{destination_name} is the receiver</t>
   </si>
   <si>
-    <t>It is {destination_name}</t>
-  </si>
-  <si>
     <t>Send them to {destination_name}</t>
   </si>
   <si>
@@ -543,12 +570,6 @@
     <t>Send this money to {destination_name}</t>
   </si>
   <si>
-    <t>let's see {destination_name}</t>
-  </si>
-  <si>
-    <t>I want it for {destination_name}</t>
-  </si>
-  <si>
     <t>the recipient is {destination_name}</t>
   </si>
   <si>
@@ -558,33 +579,18 @@
     <t>Send it to the account of {destination_name}</t>
   </si>
   <si>
-    <t>the partner is {destination_name}</t>
-  </si>
-  <si>
-    <t>{destination_name} is the person you are looking for</t>
-  </si>
-  <si>
     <t>inform {amount}</t>
   </si>
   <si>
     <t>{amount}</t>
   </si>
   <si>
-    <t>request {credit_debit}</t>
-  </si>
-  <si>
     <t>{amount} euros</t>
   </si>
   <si>
-    <t>Which information should I give credit or debit ?</t>
-  </si>
-  <si>
     <t>inform-amount</t>
   </si>
   <si>
-    <t>request-credit_debit</t>
-  </si>
-  <si>
     <t>{amount} is ok</t>
   </si>
   <si>
@@ -606,21 +612,12 @@
     <t>let's make {amount}</t>
   </si>
   <si>
-    <t>request {destination_name}</t>
-  </si>
-  <si>
     <t>facciamo {amount}</t>
   </si>
   <si>
-    <t>Can I ask what is the name of the partner ?</t>
-  </si>
-  <si>
     <t>{amount} is the total</t>
   </si>
   <si>
-    <t>request-destination_name</t>
-  </si>
-  <si>
     <t>roughly {amount}</t>
   </si>
   <si>
@@ -630,10 +627,7 @@
     <t>select {amount}</t>
   </si>
   <si>
-    <t>Which account do you want to select ?</t>
-  </si>
-  <si>
-    <t>From which account ?</t>
+    <t>from which account ?</t>
   </si>
   <si>
     <t>Da quale conto?</t>
@@ -723,13 +717,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -807,19 +801,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -835,19 +829,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -863,19 +857,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -891,19 +885,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -919,19 +913,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -947,19 +941,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -975,24 +969,24 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -1000,20 +994,20 @@
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>94</v>
+      <c r="B17" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -1021,19 +1015,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1041,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -1061,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
@@ -1081,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -1107,19 +1101,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -1127,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1147,22 +1141,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -1170,19 +1164,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -1190,24 +1184,24 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -1215,106 +1209,106 @@
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>159</v>
+      <c r="B29" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>166</v>
+      <c r="B30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>159</v>
+      <c r="B31" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>159</v>
+      <c r="B32" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>159</v>
+      <c r="B33" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35">
@@ -1322,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36">
@@ -1342,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1362,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
@@ -1382,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39">
@@ -1402,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40">
@@ -1426,22 +1420,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
@@ -1453,22 +1447,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -1480,22 +1474,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
@@ -1507,22 +1501,22 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -1598,45 +1592,49 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1651,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1671,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1691,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1711,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1731,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1755,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1775,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -1795,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -1815,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -1835,114 +1833,114 @@
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>142</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>153</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
@@ -2018,17 +2016,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2042,17 +2040,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2068,17 +2066,17 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2092,17 +2090,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -2116,14 +2114,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>92</v>
@@ -2140,17 +2138,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -2164,17 +2162,17 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -2188,17 +2186,17 @@
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -2212,17 +2210,17 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2230,17 +2228,17 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -2248,17 +2246,17 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -2266,17 +2264,17 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -2284,22 +2282,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
@@ -2307,59 +2305,59 @@
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="8"/>
+      <c r="B25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>139</v>
+      <c r="B26" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>139</v>
+      <c r="B27" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
@@ -2367,137 +2365,137 @@
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>159</v>
+      <c r="B29" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>159</v>
+      <c r="B31" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>159</v>
+      <c r="B32" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>159</v>
+      <c r="B33" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -2506,36 +2504,36 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">

--- a/Dialog_Generator/templates_for_dialogue_self_play.xlsx
+++ b/Dialog_Generator/templates_for_dialogue_self_play.xlsx
@@ -57,9 +57,36 @@
     <t>Please show me account balance for {user_account}</t>
   </si>
   <si>
+    <t>inform intent=transfer {destination_name} {user_account} {amount}</t>
+  </si>
+  <si>
+    <t>I would like to take {amount} from my {user_account} for {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorrei mandare {amount} a {destination_name} dal mio conto {user_account} </t>
+  </si>
+  <si>
+    <t>Can you transfer {amount} from my {user_account} to {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-user_account-destination_name-amount</t>
+  </si>
+  <si>
     <t>Can I see my {user_account} account balance</t>
   </si>
   <si>
+    <t xml:space="preserve">inform intent=transaction_history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to know my transaction history </t>
+  </si>
+  <si>
+    <t>Can I see my transaction history ?</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history</t>
+  </si>
+  <si>
     <t>inform intent=balance</t>
   </si>
   <si>
@@ -117,39 +144,198 @@
     <t>inform {user_account}</t>
   </si>
   <si>
+    <t>inforrm intent=transaction_history {user_account} {credit_debit} {destination_name}</t>
+  </si>
+  <si>
     <t>my {user_account} account</t>
   </si>
   <si>
+    <t>inform intent=transfer {destination_name} {amount}</t>
+  </si>
+  <si>
     <t>il mio {user_account} conto</t>
   </si>
   <si>
+    <t xml:space="preserve">I would like to see my {credit_debit} transaction history from {user_account} to {destination_name} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to send {amount} to {destination_name} </t>
+  </si>
+  <si>
     <t>Prefer {user_account} account</t>
   </si>
   <si>
+    <t xml:space="preserve">Vorrei mandare {amount} a {destination_name} </t>
+  </si>
+  <si>
     <t>inform-user_account</t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-user_account-credit_debit-destination_name</t>
+  </si>
+  <si>
+    <t>Could you please transfer {amount} to {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-destination_name-amount</t>
+  </si>
+  <si>
     <t>use {user_account}</t>
   </si>
   <si>
     <t>usa {user_account}</t>
   </si>
   <si>
+    <t>inform intent=transaction_history {user_account} {credit_debit}</t>
+  </si>
+  <si>
     <t>Please select my {user_account} account</t>
   </si>
   <si>
+    <t>I would like to see my {credit_debit} transaction history from {user_account}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-user_account-credit_debit</t>
+  </si>
+  <si>
+    <t>inform intent=transfer {amount} {user_account}</t>
+  </si>
+  <si>
+    <t>I would like to transfer {amount} from my {user_account}</t>
+  </si>
+  <si>
     <t>let's see {user_account}</t>
   </si>
   <si>
+    <t>Please transfer {amount} from my {user_account}</t>
+  </si>
+  <si>
     <t>vediamo {user_account}</t>
   </si>
   <si>
     <t>How about my {user_account} account</t>
   </si>
   <si>
+    <t>inform-intent_transaction-user_account-amount</t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {user_account} {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to see my transaction history from {user_account} to {destination_name} </t>
+  </si>
+  <si>
     <t>{user_account}</t>
   </si>
   <si>
+    <t>inform-intent_transaction_history-user_account-destination_name</t>
+  </si>
+  <si>
+    <t>inform intent=transfer {destination_name} {user_account}</t>
+  </si>
+  <si>
+    <t>I would like to take some money from my {user_account} for {destination_name}</t>
+  </si>
+  <si>
+    <t>Vorrei prendere dei soldi dal mio {user_account} da mandare a {destination_name}</t>
+  </si>
+  <si>
+    <t>I want to transfer money from my {user_account} to {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-user_account-destination_name</t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {credit_debit} {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to see my {credit_debit} transaction history to {destination_name} </t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-credit_debit-destination_name</t>
+  </si>
+  <si>
+    <t>inform intent=transfer {destination_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to send some money to {destination_name} </t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {user_account}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorrei mandare dei soldi a {destination_name} </t>
+  </si>
+  <si>
+    <t>I would like to seem my transaction history from {user_account}</t>
+  </si>
+  <si>
+    <t>Send money to {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-user_account</t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {credit_debit}</t>
+  </si>
+  <si>
+    <t>I would like to see my {credit_debit} transaction history</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-credit_debit</t>
+  </si>
+  <si>
+    <t>inform intent=transaction_history {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-destination_name</t>
+  </si>
+  <si>
+    <t>I would like to see my transaction history to {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction_history-destination_name</t>
+  </si>
+  <si>
+    <t>inform intent=transfer {amout}</t>
+  </si>
+  <si>
+    <t>I would like to transfer {amount}</t>
+  </si>
+  <si>
+    <t>Vorrei trasferire {amount}</t>
+  </si>
+  <si>
+    <t>Transfer {amount}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-amount</t>
+  </si>
+  <si>
+    <t>I want to use {user_account} account</t>
+  </si>
+  <si>
+    <t>inform intent=transfer {user_account}</t>
+  </si>
+  <si>
+    <t>I would like to transfer some money from  {user_account}</t>
+  </si>
+  <si>
+    <t>Vorrei trasferire dei soldi dal mio  {user_account}</t>
+  </si>
+  <si>
+    <t>Please use {user_account} account</t>
+  </si>
+  <si>
+    <t>Send money from {user_account}</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction-user_account</t>
+  </si>
+  <si>
+    <t>I would like {user_account} account</t>
+  </si>
+  <si>
     <t>I choose {user_account} account</t>
   </si>
   <si>
@@ -162,9 +348,42 @@
     <t>I select my {user_account} account</t>
   </si>
   <si>
+    <t>inform intent=transfer</t>
+  </si>
+  <si>
+    <t>I would like to transfer some money</t>
+  </si>
+  <si>
+    <t>Vorrei trasferire dei soldi</t>
+  </si>
+  <si>
+    <t>Can you transfer some money ?</t>
+  </si>
+  <si>
+    <t>inform-intent_transaction</t>
+  </si>
+  <si>
+    <t>I need to transfer money</t>
+  </si>
+  <si>
+    <t>Ho bisogno di trasferire denaro</t>
+  </si>
+  <si>
+    <t>Please Transfer money</t>
+  </si>
+  <si>
+    <t>I want to send some money</t>
+  </si>
+  <si>
+    <t>Voglio mandare un po' di soldi</t>
+  </si>
+  <si>
     <t>Bot</t>
   </si>
   <si>
+    <t>{user_account} account please</t>
+  </si>
+  <si>
     <t>request {user_account}</t>
   </si>
   <si>
@@ -174,282 +393,63 @@
     <t>Per favore, specificare quale conto</t>
   </si>
   <si>
+    <t>I would like to make a money transaction</t>
+  </si>
+  <si>
     <t>request-user_account</t>
   </si>
   <si>
+    <t>Go for {user_account}</t>
+  </si>
+  <si>
+    <t>I need to make a transaction</t>
+  </si>
+  <si>
     <t>request {intent}</t>
   </si>
   <si>
+    <t>Ho bisogno di fare una transazione</t>
+  </si>
+  <si>
     <t>how can i help you today ?</t>
   </si>
   <si>
+    <t>Transfer money please</t>
+  </si>
+  <si>
     <t>come posso aiutarla oggi ?</t>
   </si>
   <si>
     <t>request-intent</t>
   </si>
   <si>
-    <t xml:space="preserve">inform intent=transaction_history </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to know my transaction history </t>
-  </si>
-  <si>
-    <t>Can I see my transaction history ?</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history</t>
-  </si>
-  <si>
-    <t>inforrm intent=transaction_history {user_account} {credit_debit} {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my {credit_debit } transaction history from {user_account} to {destination_name} </t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account-credit_debit-destination_name</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {destination_name} {user_account} {amount}</t>
-  </si>
-  <si>
-    <t>I would like to take {amount} from my {user_account} for {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorrei mandare {amount} a {destination_name} dal mio conto {user_account} </t>
-  </si>
-  <si>
-    <t>Can you transfer {amount} from my {user_account} to {destination_name}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-user_account-destination_name-amount</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {destination_name} {amount}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to send {amount} to {destination_name} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorrei mandare {amount} a {destination_name} </t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {user_account} {credit_debit}</t>
-  </si>
-  <si>
-    <t>Could you please transfer {amount} to {destination_name}</t>
-  </si>
-  <si>
-    <t>I would like to see my {credit_debit} transaction history from {user_account}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-destination_name-amount</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account-credit_debit</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {amount} {user_account}</t>
-  </si>
-  <si>
-    <t>I would like to transfer {amount} from my {user_account}</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {user_account} {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my transaction history from {user_account} to {destination_name} </t>
-  </si>
-  <si>
-    <t>Please transfer {amount} from my {user_account}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-user_account-amount</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account-destination_name</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {destination_name} {user_account}</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {credit_debit} {destination_name}</t>
-  </si>
-  <si>
-    <t>I would like to take some money from my {user_account} for {destination_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to see my {credit_debit} transaction history to {destination_name} </t>
-  </si>
-  <si>
-    <t>Vorrei prendere dei soldi dal mio {user_account} da mandare a {destination_name}</t>
-  </si>
-  <si>
-    <t>I want to transfer money from my {user_account} to {destination_name}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-user_account-destination_name</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-credit_debit-destination_name</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {user_account}</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {destination_name}</t>
-  </si>
-  <si>
-    <t>I would like to seem my transaction history from {user_account}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to send some money to {destination_name} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorrei mandare dei soldi a {destination_name} </t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-user_account</t>
-  </si>
-  <si>
-    <t>Send money to {destination_name}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-destination_name</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {credit_debit}</t>
-  </si>
-  <si>
-    <t>I would like to see my {credit_debit} transaction history</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {amout}</t>
-  </si>
-  <si>
-    <t>I would like to transfer {amount}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-credit_debit</t>
-  </si>
-  <si>
-    <t>Vorrei trasferire {amount}</t>
-  </si>
-  <si>
-    <t>Transfer {amount}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-amount</t>
-  </si>
-  <si>
-    <t>inform intent=transaction_history {destination_name}</t>
-  </si>
-  <si>
-    <t>I would like to see my transaction history to {destination_name}</t>
-  </si>
-  <si>
-    <t>inform intent=transfer {user_account}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction_history-destination_name</t>
-  </si>
-  <si>
-    <t>I would like to transfer some money from  {user_account}</t>
-  </si>
-  <si>
-    <t>Vorrei trasferire dei soldi dal mio  {user_account}</t>
-  </si>
-  <si>
-    <t>Send money from {user_account}</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction-user_account</t>
-  </si>
-  <si>
-    <t>I want to use {user_account} account</t>
-  </si>
-  <si>
-    <t>Please use {user_account} account</t>
-  </si>
-  <si>
-    <t>I would like {user_account} account</t>
-  </si>
-  <si>
-    <t>{user_account} account please</t>
-  </si>
-  <si>
-    <t>Go for {user_account}</t>
-  </si>
-  <si>
     <t>inform {credit_debit}</t>
   </si>
   <si>
     <t>{credit_debit}</t>
   </si>
   <si>
-    <t>inform intent=transfer</t>
-  </si>
-  <si>
     <t>{credit_debit} please</t>
   </si>
   <si>
-    <t>I would like to transfer some money</t>
-  </si>
-  <si>
-    <t>Vorrei trasferire dei soldi</t>
-  </si>
-  <si>
-    <t>Can you transfer some money ?</t>
-  </si>
-  <si>
-    <t>inform-intent_transaction</t>
-  </si>
-  <si>
-    <t>I need to transfer money</t>
-  </si>
-  <si>
-    <t>Ho bisogno di trasferire denaro</t>
-  </si>
-  <si>
-    <t>Please Transfer money</t>
-  </si>
-  <si>
-    <t>I want to send some money</t>
-  </si>
-  <si>
-    <t>Voglio mandare un po' di soldi</t>
-  </si>
-  <si>
-    <t>I would like to make a money transaction</t>
+    <t>transfer money</t>
   </si>
   <si>
     <t>inform-credit_debit</t>
   </si>
   <si>
-    <t>I need to make a transaction</t>
-  </si>
-  <si>
-    <t>Ho bisogno di fare una transazione</t>
-  </si>
-  <si>
-    <t>Transfer money please</t>
+    <t>Trasferire denaro</t>
+  </si>
+  <si>
+    <t>Send Money</t>
   </si>
   <si>
     <t>let's see {credit_debit}</t>
   </si>
   <si>
-    <t>transfer money</t>
-  </si>
-  <si>
     <t>prefer to use {credit_debit}</t>
   </si>
   <si>
-    <t>Trasferire denaro</t>
-  </si>
-  <si>
-    <t>Send Money</t>
-  </si>
-  <si>
     <t>I want information about {credit_debit}</t>
   </si>
   <si>
@@ -459,46 +459,82 @@
     <t>from my {user_account}</t>
   </si>
   <si>
+    <t>take money from {user_account}</t>
+  </si>
+  <si>
+    <t>take from {user_account}</t>
+  </si>
+  <si>
+    <t>prendili da {user_account}</t>
+  </si>
+  <si>
+    <t>use the {user_account} for the transaction</t>
+  </si>
+  <si>
+    <t>note that this one "take from" is meaningful only in the transaction scenario</t>
+  </si>
+  <si>
+    <t>I select {user_account}</t>
+  </si>
+  <si>
+    <t>withdraw from {user_account}</t>
+  </si>
+  <si>
+    <t>preleva da {user_account}</t>
+  </si>
+  <si>
+    <t>Prefer the {user_account}</t>
+  </si>
+  <si>
     <t>inform {destiantion_name}</t>
   </si>
   <si>
+    <t>it's for {destination_name}</t>
+  </si>
+  <si>
+    <t>sono per {destination_name}</t>
+  </si>
+  <si>
+    <t>The money is for {destination_name}</t>
+  </si>
+  <si>
+    <t>inform-destination_name</t>
+  </si>
+  <si>
+    <t>{destination_name}</t>
+  </si>
+  <si>
     <t>it's about {destination_name}</t>
   </si>
   <si>
     <t>{destination_name} is the person</t>
   </si>
   <si>
-    <t>inform-destination_name</t>
-  </si>
-  <si>
-    <t>take money from {user_account}</t>
-  </si>
-  <si>
-    <t>{destination_name}</t>
+    <t>{destination_name} is the recipient</t>
+  </si>
+  <si>
+    <t>I choose {destination_name}</t>
   </si>
   <si>
     <t>Please use {destination_name}</t>
   </si>
   <si>
-    <t>take from {user_account}</t>
-  </si>
-  <si>
-    <t>prendili da {user_account}</t>
-  </si>
-  <si>
-    <t>use the {user_account} for the transaction</t>
-  </si>
-  <si>
-    <t>I choose {destination_name}</t>
-  </si>
-  <si>
-    <t>note that this one "take from" is meaningful only in the transaction scenario</t>
+    <t>scelgo {destination_name}</t>
+  </si>
+  <si>
+    <t>{destination_name} is the receiver</t>
+  </si>
+  <si>
+    <t>Send them to {destination_name}</t>
   </si>
   <si>
     <t>It is {destination_name}</t>
   </si>
   <si>
-    <t>I select {user_account}</t>
+    <t>mandali a {destination_name}</t>
+  </si>
+  <si>
+    <t>Send this money to {destination_name}</t>
   </si>
   <si>
     <t>let's see {destination_name}</t>
@@ -507,37 +543,67 @@
     <t>I want it for {destination_name}</t>
   </si>
   <si>
-    <t>withdraw from {user_account}</t>
-  </si>
-  <si>
-    <t>preleva da {user_account}</t>
+    <t>the recipient is {destination_name}</t>
+  </si>
+  <si>
+    <t>il destinatario è {destination_name}</t>
+  </si>
+  <si>
+    <t>Send it to the account of {destination_name}</t>
   </si>
   <si>
     <t>the partner is {destination_name}</t>
   </si>
   <si>
-    <t>Prefer the {user_account}</t>
-  </si>
-  <si>
     <t>{destination_name} is the person you are looking for</t>
   </si>
   <si>
+    <t>inform {amount}</t>
+  </si>
+  <si>
+    <t>{amount}</t>
+  </si>
+  <si>
+    <t>{amount} euros</t>
+  </si>
+  <si>
     <t>request {credit_debit}</t>
   </si>
   <si>
+    <t>inform-amount</t>
+  </si>
+  <si>
     <t>which information should I give credit or debit ?</t>
   </si>
   <si>
+    <t>{amount} is ok</t>
+  </si>
+  <si>
     <t>request-credit_debit</t>
   </si>
   <si>
-    <t>it's for {destination_name}</t>
-  </si>
-  <si>
-    <t>sono per {destination_name}</t>
-  </si>
-  <si>
-    <t>The money is for {destination_name}</t>
+    <t>{amount} vanno bene</t>
+  </si>
+  <si>
+    <t>Send {amount}</t>
+  </si>
+  <si>
+    <t>let's say {amount}</t>
+  </si>
+  <si>
+    <t>diciamo {amount}</t>
+  </si>
+  <si>
+    <t>It is {amount}</t>
+  </si>
+  <si>
+    <t>let's make {amount}</t>
+  </si>
+  <si>
+    <t>facciamo {amount}</t>
+  </si>
+  <si>
+    <t>{amount} is the total</t>
   </si>
   <si>
     <t>request {destination_name}</t>
@@ -546,85 +612,19 @@
     <t>can I ask what is the name of the partner ?</t>
   </si>
   <si>
-    <t>{destination_name} is the recipient</t>
+    <t>roughly {amount}</t>
   </si>
   <si>
     <t>request-destination_name</t>
   </si>
   <si>
-    <t>scelgo {destination_name}</t>
+    <t>circa {amount}</t>
+  </si>
+  <si>
+    <t>select {amount}</t>
   </si>
   <si>
     <t>which account do you want to select ?</t>
-  </si>
-  <si>
-    <t>{destination_name} is the receiver</t>
-  </si>
-  <si>
-    <t>Send them to {destination_name}</t>
-  </si>
-  <si>
-    <t>mandali a {destination_name}</t>
-  </si>
-  <si>
-    <t>Send this money to {destination_name}</t>
-  </si>
-  <si>
-    <t>the recipient is {destination_name}</t>
-  </si>
-  <si>
-    <t>il destinatario è {destination_name}</t>
-  </si>
-  <si>
-    <t>Send it to the account of {destination_name}</t>
-  </si>
-  <si>
-    <t>inform {amount}</t>
-  </si>
-  <si>
-    <t>{amount}</t>
-  </si>
-  <si>
-    <t>{amount} euros</t>
-  </si>
-  <si>
-    <t>inform-amount</t>
-  </si>
-  <si>
-    <t>{amount} is ok</t>
-  </si>
-  <si>
-    <t>{amount} vanno bene</t>
-  </si>
-  <si>
-    <t>Send {amount}</t>
-  </si>
-  <si>
-    <t>let's say {amount}</t>
-  </si>
-  <si>
-    <t>diciamo {amount}</t>
-  </si>
-  <si>
-    <t>It is {amount}</t>
-  </si>
-  <si>
-    <t>let's make {amount}</t>
-  </si>
-  <si>
-    <t>facciamo {amount}</t>
-  </si>
-  <si>
-    <t>{amount} is the total</t>
-  </si>
-  <si>
-    <t>roughly {amount}</t>
-  </si>
-  <si>
-    <t>circa {amount}</t>
-  </si>
-  <si>
-    <t>select {amount}</t>
   </si>
   <si>
     <t>from which account ?</t>
@@ -720,10 +720,10 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -801,19 +801,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +829,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -857,19 +857,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -885,19 +885,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -913,19 +913,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -941,19 +941,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -969,24 +969,24 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -994,20 +994,20 @@
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>124</v>
+      <c r="B17" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -1015,19 +1015,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1055,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -1075,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -1101,19 +1101,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -1121,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -1141,22 +1141,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -1164,19 +1164,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -1184,24 +1184,24 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -1209,100 +1209,100 @@
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>148</v>
+      <c r="B29" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>148</v>
+      <c r="B30" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>148</v>
+      <c r="B31" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>148</v>
+      <c r="B32" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>148</v>
+      <c r="B33" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34">
@@ -1316,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
@@ -1336,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -1376,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
@@ -1396,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -1420,22 +1420,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
@@ -1447,10 +1447,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>204</v>
@@ -1462,7 +1462,7 @@
         <v>204</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -1474,7 +1474,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>206</v>
@@ -1489,7 +1489,7 @@
         <v>207</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>209</v>
@@ -1627,11 +1627,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1649,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1669,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1689,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1729,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -1753,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1773,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1793,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1813,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -1833,96 +1833,96 @@
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
@@ -2016,17 +2016,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -2040,17 +2040,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -2066,17 +2066,17 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -2090,17 +2090,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -2114,17 +2114,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2138,17 +2138,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2162,17 +2162,17 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -2186,17 +2186,17 @@
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -2210,17 +2210,17 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -2228,17 +2228,17 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -2246,17 +2246,17 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -2264,17 +2264,17 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -2282,22 +2282,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
@@ -2305,44 +2305,44 @@
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>122</v>
+      <c r="B26" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>122</v>
+      <c r="B27" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
@@ -2352,12 +2352,12 @@
         <v>146</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
@@ -2365,90 +2365,90 @@
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>148</v>
+      <c r="B29" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>148</v>
+      <c r="B30" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>148</v>
+      <c r="B31" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>148</v>
+      <c r="B32" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>148</v>
+      <c r="B33" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34">
@@ -2459,20 +2459,20 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -2483,19 +2483,19 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
@@ -2504,36 +2504,36 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
